--- a/data/trans_bre/P19C09-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Clase-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7297678029592306</v>
+        <v>-0.8267600309841121</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.574865421746092</v>
+        <v>-1.647580058177783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.725199456415144</v>
+        <v>-1.659515388890213</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4549099076416646</v>
+        <v>-0.5242672093989886</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4934788673462691</v>
+        <v>-0.4830450327501744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5075016190977693</v>
+        <v>-0.5121742929726384</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.796860768852774</v>
+        <v>4.109375213693785</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.756796250188108</v>
+        <v>4.684760453314977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.829720386136976</v>
+        <v>3.495272812585658</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4.743089937356559</v>
+        <v>6.052677060657473</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.593008292948014</v>
+        <v>2.58110443200833</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.61918377424924</v>
+        <v>2.336179668782618</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.398090840498839</v>
+        <v>-2.351629794546904</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3271153368409143</v>
+        <v>-0.4987493301450278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.17126019892413</v>
+        <v>-1.405749446992657</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7461842106828895</v>
+        <v>-0.7429806652057919</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3537294567016132</v>
+        <v>-0.3591199255700896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4928262903966062</v>
+        <v>-0.5307839540545494</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.314165598953963</v>
+        <v>2.552669296560565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.770161276454474</v>
+        <v>5.820612218061252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.015547760592857</v>
+        <v>3.817811023428699</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.750665161140476</v>
+        <v>3.333419971381454</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.78711812713756</v>
+        <v>5.567255413126339</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.997128364420965</v>
+        <v>4.493261657364706</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.882065000558913</v>
+        <v>-2.889165580271588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.180782517633701</v>
+        <v>-1.333658531112278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.673367147739055</v>
+        <v>-4.621560291417948</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.7534762998269148</v>
+        <v>-0.7662469434530503</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4859775038336784</v>
+        <v>-0.5247258819993079</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
     </row>
@@ -826,19 +826,19 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.888208353965454</v>
+        <v>4.353371224184131</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.756900387930998</v>
+        <v>3.565994116740007</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.399087003700092</v>
+        <v>-1.384682388536572</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.172881249771908</v>
+        <v>2.699992544582904</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.022304805169434</v>
+        <v>3.163683654176455</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
     </row>
@@ -880,22 +880,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.589828410566184</v>
+        <v>-2.404818775514589</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.2429963215290373</v>
+        <v>-0.1480339489305904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.919447836130293</v>
+        <v>-1.979244572075616</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6942831893771934</v>
+        <v>-0.6381767901616276</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2151528484884479</v>
+        <v>-0.1450735051762554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5358556530811961</v>
+        <v>-0.560498941957749</v>
       </c>
     </row>
     <row r="15">
@@ -906,22 +906,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8816519404302712</v>
+        <v>0.8390904930670176</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.894846965922551</v>
+        <v>2.947583554533038</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.46211977808217</v>
+        <v>1.419026647662454</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4197790217956258</v>
+        <v>0.4823514353094579</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.893584591209243</v>
+        <v>3.866274748622854</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7468213433888419</v>
+        <v>0.7527156137099824</v>
       </c>
     </row>
     <row r="16">
@@ -962,22 +962,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.106197603682027</v>
+        <v>-3.577799948604135</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.127394728632583</v>
+        <v>-1.291902106545923</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.692163133696369</v>
+        <v>-2.778331112553311</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.5645991501328422</v>
+        <v>-0.612218502187141</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5633304852154427</v>
+        <v>-0.5357578907641349</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.59168375211591</v>
+        <v>-0.597968286752051</v>
       </c>
     </row>
     <row r="18">
@@ -988,22 +988,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.526039355777977</v>
+        <v>2.384857664787643</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.262944391072412</v>
+        <v>2.410151296717645</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.711930589142108</v>
+        <v>1.644701216717371</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.26500834845278</v>
+        <v>1.081343121726419</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5.572397814290341</v>
+        <v>6.508576794701789</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9244784832092812</v>
+        <v>0.8600900483716656</v>
       </c>
     </row>
     <row r="19">
@@ -1044,22 +1044,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.634735164946445</v>
+        <v>-0.5307847889448116</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.233522333888476</v>
+        <v>-1.262886683371594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-5.317826459917897</v>
+        <v>-4.995609582884045</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2390606458534542</v>
+        <v>-0.1893205942608623</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4194974146600647</v>
+        <v>-0.4148797914850893</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7145681589372516</v>
+        <v>-0.6834219340868785</v>
       </c>
     </row>
     <row r="21">
@@ -1070,22 +1070,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.017673261637622</v>
+        <v>3.830051247064714</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.967813102488248</v>
+        <v>2.76804988269417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5358441226788679</v>
+        <v>0.8575873959848518</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.594763893810454</v>
+        <v>4.67657517547737</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.209682869874248</v>
+        <v>6.152820186130696</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2375609719567462</v>
+        <v>0.40416193355468</v>
       </c>
     </row>
     <row r="22">
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3938317752428879</v>
+        <v>-0.4076840552424295</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1831592960342138</v>
+        <v>0.3060781846120808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.060524372201886</v>
+        <v>-1.087490589172644</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1297573869470155</v>
+        <v>-0.1338087050064541</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.09781650342474252</v>
+        <v>0.1255976389744693</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3121123220109016</v>
+        <v>-0.3214948290771794</v>
       </c>
     </row>
     <row r="24">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.444012800569695</v>
+        <v>1.399167572114259</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.876547171880257</v>
+        <v>1.934560430139982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.786427758753089</v>
+        <v>0.7860689503616693</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.6694119061541897</v>
+        <v>0.6657108427231133</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.450180530734384</v>
+        <v>1.360140081811933</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3381646945078752</v>
+        <v>0.3404459639016041</v>
       </c>
     </row>
     <row r="25">
